--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546667.8011137208</v>
+        <v>559991.2641037412</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>512047.711698149</v>
+      </c>
+      <c r="C2" t="n">
         <v>512047.7116981489</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>512047.711698149</v>
-      </c>
-      <c r="D2" t="n">
-        <v>512047.7116981491</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50702.93796517779</v>
+        <v>52896.9725320455</v>
       </c>
       <c r="C6" t="n">
-        <v>50702.93796517791</v>
+        <v>52896.97253204545</v>
       </c>
       <c r="D6" t="n">
-        <v>50702.93796517797</v>
+        <v>52896.9725320455</v>
       </c>
       <c r="E6" t="n">
-        <v>-42893.2030595441</v>
+        <v>-41593.00692037865</v>
       </c>
       <c r="F6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="G6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="H6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="I6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="J6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="K6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="L6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="M6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="N6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="O6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
       <c r="P6" t="n">
-        <v>90206.79694045597</v>
+        <v>91506.99307962136</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559991.2641037412</v>
+        <v>573717.6222411591</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
+        <v>512047.7116981491</v>
+      </c>
+      <c r="D2" t="n">
         <v>512047.7116981489</v>
-      </c>
-      <c r="D2" t="n">
-        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>425523.1391661035</v>
+        <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
         <v>425523.1391661035</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52896.9725320455</v>
+        <v>52896.97253204542</v>
       </c>
       <c r="C6" t="n">
-        <v>52896.97253204545</v>
+        <v>52896.97253204554</v>
       </c>
       <c r="D6" t="n">
-        <v>52896.9725320455</v>
+        <v>52896.97253204537</v>
       </c>
       <c r="E6" t="n">
-        <v>-41593.00692037865</v>
+        <v>-41593.00692037871</v>
       </c>
       <c r="F6" t="n">
         <v>91506.99307962136</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>573717.6222411591</v>
+        <v>489932.2204795342</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.7116981492</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52896.97253204542</v>
+        <v>52852.83675336435</v>
       </c>
       <c r="C6" t="n">
-        <v>52896.97253204554</v>
+        <v>52852.8367533643</v>
       </c>
       <c r="D6" t="n">
-        <v>52896.97253204537</v>
+        <v>52852.83675336453</v>
       </c>
       <c r="E6" t="n">
-        <v>-41593.00692037871</v>
+        <v>-56403.02375949261</v>
       </c>
       <c r="F6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="G6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="H6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="I6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="J6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="K6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="L6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="M6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="N6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="O6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
       <c r="P6" t="n">
-        <v>91506.99307962136</v>
+        <v>76696.97624050746</v>
       </c>
     </row>
   </sheetData>
